--- a/config/语言名称对应表.xlsx
+++ b/config/语言名称对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16420"/>
+    <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>葡萄牙语</t>
     </r>
     <r>
@@ -135,16 +141,22 @@
     <t>Português (Portugal)</t>
   </si>
   <si>
+    <t>pt-rPT</t>
+  </si>
+  <si>
     <t>pt-PT</t>
   </si>
   <si>
-    <t>pt_PT</t>
-  </si>
-  <si>
-    <t>br</t>
+    <t>pt-BR</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>葡萄牙语</t>
     </r>
     <r>
@@ -179,7 +191,7 @@
     <t>Português (Brazil)</t>
   </si>
   <si>
-    <t>pt_BR</t>
+    <t>pt-rBR</t>
   </si>
   <si>
     <t>tr</t>
@@ -609,8 +621,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -652,42 +664,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -695,22 +679,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,9 +701,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,25 +723,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,15 +740,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,6 +798,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -817,19 +829,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,157 +991,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,8 +1035,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,6 +1046,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,30 +1080,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1088,17 +1091,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,151 +1109,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1548,7 +1560,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
@@ -1713,13 +1725,13 @@
         <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>31</v>
@@ -1728,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:11">
@@ -1747,19 +1759,19 @@
       <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:11">
